--- a/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42BCE70A-1782-4D5A-B9D5-7A9935BCF2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F19ADDB5-2268-4993-9AF0-EB92BB71BC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A0E8442-B808-4B56-BC79-58ACC2644CC7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB66AF8B-A632-470D-8907-AE07CDC9049A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,403 +74,406 @@
     <t>15,17%</t>
   </si>
   <si>
-    <t>12,44%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>21,17%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>20,52%</t>
+    <t>20,85%</t>
   </si>
   <si>
     <t>24,62%</t>
@@ -479,37 +482,37 @@
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>67,25%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAB640A-0D9E-4EB9-B2D1-8111086DD49D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D85FA96-4000-4710-9465-7A7ACDD556EF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1577,13 +1580,13 @@
         <v>42818</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -1592,13 +1595,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1616,13 @@
         <v>42478</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
@@ -1628,13 +1631,13 @@
         <v>54634</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>128</v>
@@ -1643,7 +1646,7 @@
         <v>97112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>104</v>
@@ -1870,13 +1873,13 @@
         <v>206644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>618</v>
@@ -1885,13 +1888,13 @@
         <v>371649</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>852</v>
@@ -1900,13 +1903,13 @@
         <v>578293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1924,13 @@
         <v>662132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1455</v>
@@ -1936,13 +1939,13 @@
         <v>879447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2211</v>
@@ -1951,13 +1954,13 @@
         <v>1541579</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1975,13 @@
         <v>2270046</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>2656</v>
@@ -1987,13 +1990,13 @@
         <v>2132973</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>4765</v>
@@ -2002,13 +2005,13 @@
         <v>4403019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F19ADDB5-2268-4993-9AF0-EB92BB71BC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D029C66-F176-4FE3-B151-F7D8F5251B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB66AF8B-A632-470D-8907-AE07CDC9049A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B11E2286-F556-47F8-A054-172D2D0C89C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D85FA96-4000-4710-9465-7A7ACDD556EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7CE38A-7C6F-4116-A9F9-59C687D8E1A0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D029C66-F176-4FE3-B151-F7D8F5251B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{938B06AC-66F5-4C10-905E-7C12EE50B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B11E2286-F556-47F8-A054-172D2D0C89C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD84681-559D-487D-872B-41961BE85695}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>15,17%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,10 +104,10 @@
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>15,37%</t>
@@ -116,16 +116,16 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>17,36%</t>
+    <t>17,27%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>18,36%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>55,87%</t>
   </si>
   <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,133 +197,136 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>6,04%</t>
@@ -332,43 +335,40 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>21,56%</t>
@@ -377,103 +377,100 @@
     <t>19,74%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>23,75%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>63,58%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>20,52%</t>
   </si>
   <si>
     <t>24,62%</t>
@@ -482,37 +479,37 @@
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>67,25%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7CE38A-7C6F-4116-A9F9-59C687D8E1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E7E1B3-16D3-43A5-BDFC-9626E5F879FC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1580,13 +1577,13 @@
         <v>42818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -1595,13 +1592,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1613,13 @@
         <v>42478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
@@ -1631,13 +1628,13 @@
         <v>54634</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>128</v>
@@ -1646,7 +1643,7 @@
         <v>97112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>104</v>
@@ -1873,13 +1870,13 @@
         <v>206644</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>618</v>
@@ -1888,13 +1885,13 @@
         <v>371649</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>852</v>
@@ -1903,13 +1900,13 @@
         <v>578293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1921,13 @@
         <v>662132</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1455</v>
@@ -1939,13 +1936,13 @@
         <v>879447</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2211</v>
@@ -1954,13 +1951,13 @@
         <v>1541579</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1972,13 @@
         <v>2270046</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>2656</v>
@@ -1990,13 +1987,13 @@
         <v>2132973</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>4765</v>
@@ -2005,13 +2002,13 @@
         <v>4403019</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{938B06AC-66F5-4C10-905E-7C12EE50B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F76584-CCE5-459D-BD57-D1DCE2537280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD84681-559D-487D-872B-41961BE85695}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B94FB73-3AB7-4C8E-8D2B-F02FB36EA60C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,322 +194,319 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>7,89%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E7E1B3-16D3-43A5-BDFC-9626E5F879FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2626ECD1-A462-48C8-A096-BD7E26BA93A6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,7 +1042,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="7">
-        <v>82163</v>
+        <v>73872</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1060,7 +1057,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="7">
-        <v>186905</v>
+        <v>161955</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1075,7 +1072,7 @@
         <v>404</v>
       </c>
       <c r="N4" s="7">
-        <v>269068</v>
+        <v>235828</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1096,7 +1093,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="7">
-        <v>57455</v>
+        <v>54709</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1111,7 +1108,7 @@
         <v>235</v>
       </c>
       <c r="I5" s="7">
-        <v>128054</v>
+        <v>115526</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1126,7 +1123,7 @@
         <v>311</v>
       </c>
       <c r="N5" s="7">
-        <v>185509</v>
+        <v>170235</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1147,7 +1144,7 @@
         <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>99418</v>
+        <v>92348</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1162,7 +1159,7 @@
         <v>392</v>
       </c>
       <c r="I6" s="7">
-        <v>215026</v>
+        <v>196312</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1177,7 +1174,7 @@
         <v>521</v>
       </c>
       <c r="N6" s="7">
-        <v>314443</v>
+        <v>288661</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1198,7 +1195,7 @@
         <v>384</v>
       </c>
       <c r="D7" s="7">
-        <v>302598</v>
+        <v>294008</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1213,7 +1210,7 @@
         <v>497</v>
       </c>
       <c r="I7" s="7">
-        <v>303206</v>
+        <v>279375</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1228,7 +1225,7 @@
         <v>881</v>
       </c>
       <c r="N7" s="7">
-        <v>605804</v>
+        <v>573384</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1249,7 +1246,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1264,7 +1261,7 @@
         <v>1426</v>
       </c>
       <c r="I8" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1279,7 +1276,7 @@
         <v>2117</v>
       </c>
       <c r="N8" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1302,7 +1299,7 @@
         <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>129377</v>
+        <v>118090</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1317,7 +1314,7 @@
         <v>259</v>
       </c>
       <c r="I9" s="7">
-        <v>182193</v>
+        <v>162552</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1332,7 +1329,7 @@
         <v>395</v>
       </c>
       <c r="N9" s="7">
-        <v>311570</v>
+        <v>280642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1353,7 +1350,7 @@
         <v>115</v>
       </c>
       <c r="D10" s="7">
-        <v>106711</v>
+        <v>104343</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1368,31 +1365,31 @@
         <v>298</v>
       </c>
       <c r="I10" s="7">
-        <v>188961</v>
+        <v>175198</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
       </c>
       <c r="N10" s="7">
-        <v>295672</v>
+        <v>279541</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,46 +1401,46 @@
         <v>464</v>
       </c>
       <c r="D11" s="7">
-        <v>426172</v>
+        <v>399732</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>800</v>
       </c>
       <c r="I11" s="7">
-        <v>501895</v>
+        <v>456012</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1264</v>
       </c>
       <c r="N11" s="7">
-        <v>928067</v>
+        <v>855744</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,46 +1452,46 @@
         <v>1276</v>
       </c>
       <c r="D12" s="7">
-        <v>1498686</v>
+        <v>1667132</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1563</v>
       </c>
       <c r="I12" s="7">
-        <v>1375860</v>
+        <v>1443496</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2839</v>
       </c>
       <c r="N12" s="7">
-        <v>2874545</v>
+        <v>3110628</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,7 +1503,7 @@
         <v>1991</v>
       </c>
       <c r="D13" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1521,7 +1518,7 @@
         <v>2920</v>
       </c>
       <c r="I13" s="7">
-        <v>2248909</v>
+        <v>2237258</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1536,7 +1533,7 @@
         <v>4911</v>
       </c>
       <c r="N13" s="7">
-        <v>4409854</v>
+        <v>4526555</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,46 +1556,46 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>25257</v>
+        <v>23402</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>42818</v>
+        <v>39213</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>68075</v>
+        <v>62615</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,46 +1607,46 @@
         <v>43</v>
       </c>
       <c r="D15" s="7">
-        <v>42478</v>
+        <v>41826</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>54634</v>
+        <v>51026</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>128</v>
       </c>
       <c r="N15" s="7">
-        <v>97112</v>
+        <v>92853</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1658,7 @@
         <v>163</v>
       </c>
       <c r="D16" s="7">
-        <v>136543</v>
+        <v>128117</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -1676,7 +1673,7 @@
         <v>263</v>
       </c>
       <c r="I16" s="7">
-        <v>162526</v>
+        <v>149354</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -1691,7 +1688,7 @@
         <v>426</v>
       </c>
       <c r="N16" s="7">
-        <v>299069</v>
+        <v>277471</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
@@ -1712,7 +1709,7 @@
         <v>449</v>
       </c>
       <c r="D17" s="7">
-        <v>468762</v>
+        <v>453277</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -1727,7 +1724,7 @@
         <v>596</v>
       </c>
       <c r="I17" s="7">
-        <v>453907</v>
+        <v>420870</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -1742,7 +1739,7 @@
         <v>1045</v>
       </c>
       <c r="N17" s="7">
-        <v>922670</v>
+        <v>874147</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -1763,7 +1760,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1778,7 +1775,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1793,7 +1790,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1813,7 @@
         <v>264</v>
       </c>
       <c r="D19" s="7">
-        <v>236796</v>
+        <v>215365</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>123</v>
@@ -1825,37 +1822,37 @@
         <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>621</v>
       </c>
       <c r="I19" s="7">
-        <v>411917</v>
+        <v>363720</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>885</v>
       </c>
       <c r="N19" s="7">
-        <v>648713</v>
+        <v>579085</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,46 +1864,46 @@
         <v>234</v>
       </c>
       <c r="D20" s="7">
-        <v>206644</v>
+        <v>200879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>618</v>
       </c>
       <c r="I20" s="7">
-        <v>371649</v>
+        <v>341750</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>852</v>
       </c>
       <c r="N20" s="7">
-        <v>578293</v>
+        <v>542628</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,46 +1915,46 @@
         <v>756</v>
       </c>
       <c r="D21" s="7">
-        <v>662132</v>
+        <v>620197</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>1455</v>
       </c>
       <c r="I21" s="7">
-        <v>879447</v>
+        <v>801679</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>2211</v>
       </c>
       <c r="N21" s="7">
-        <v>1541579</v>
+        <v>1421876</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,46 +1966,46 @@
         <v>2109</v>
       </c>
       <c r="D22" s="7">
-        <v>2270046</v>
+        <v>2414418</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2656</v>
       </c>
       <c r="I22" s="7">
-        <v>2132973</v>
+        <v>2143741</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>4765</v>
       </c>
       <c r="N22" s="7">
-        <v>4403019</v>
+        <v>4558159</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2017,7 @@
         <v>3363</v>
       </c>
       <c r="D23" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2035,7 +2032,7 @@
         <v>5350</v>
       </c>
       <c r="I23" s="7">
-        <v>3795986</v>
+        <v>3650889</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2050,7 +2047,7 @@
         <v>8713</v>
       </c>
       <c r="N23" s="7">
-        <v>7171604</v>
+        <v>7101748</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene dificultad para dormirse por la noche en 2023</t>
+          <t>Población según la frecuencia con la que tiene dificultad para dormirse por la noche en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
